--- a/example_result.xlsx
+++ b/example_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmas/PycharmProjects/Project_emo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F336DF-9A0E-8A4E-892A-AF328C1AAE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6553F147-A6B6-854A-8F16-5EC72C49B967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="125" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
